--- a/db.xlsx
+++ b/db.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ВШЭ МИЭМ ИВТ\Python\project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\hse\python_project_192\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD4A946-DE5C-43C3-9CA5-539AFF507726}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9082E21-5C30-477D-B1E3-6921997A942D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3E971001-3800-4193-8498-245E767CB2F4}"/>
+    <workbookView xWindow="420" yWindow="1815" windowWidth="22860" windowHeight="11385" activeTab="2" xr2:uid="{3E971001-3800-4193-8498-245E767CB2F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Учет" sheetId="1" r:id="rId1"/>
     <sheet name="Работник" sheetId="2" r:id="rId2"/>
-    <sheet name="Информация" sheetId="3" r:id="rId3"/>
-    <sheet name="Должность" sheetId="4" r:id="rId4"/>
+    <sheet name="Должность" sheetId="4" r:id="rId3"/>
+    <sheet name="Информация" sheetId="3" r:id="rId4"/>
     <sheet name="Отдел" sheetId="5" r:id="rId5"/>
+    <sheet name="temp" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="138">
   <si>
     <t>Код</t>
   </si>
@@ -93,77 +92,371 @@
     <t>Мотивация</t>
   </si>
   <si>
-    <t>А</t>
-  </si>
-  <si>
-    <t>Б</t>
-  </si>
-  <si>
-    <t>В</t>
-  </si>
-  <si>
-    <t>Г</t>
-  </si>
-  <si>
-    <t>Д</t>
-  </si>
-  <si>
-    <t>Фыва</t>
-  </si>
-  <si>
-    <t>Йцук</t>
-  </si>
-  <si>
-    <t>Ячсм</t>
-  </si>
-  <si>
-    <t>Олдж</t>
-  </si>
-  <si>
-    <t>Гшщз</t>
-  </si>
-  <si>
     <t>Высшее</t>
   </si>
   <si>
-    <t>Среднее</t>
-  </si>
-  <si>
-    <t>Фывец</t>
-  </si>
-  <si>
-    <t>Йцукец</t>
-  </si>
-  <si>
-    <t>Ячсмец</t>
-  </si>
-  <si>
-    <t>Олджец</t>
-  </si>
-  <si>
-    <t>Гшщзец</t>
-  </si>
-  <si>
-    <t>Фывный</t>
-  </si>
-  <si>
-    <t>Йцукный</t>
-  </si>
-  <si>
-    <t>Ячсмный</t>
-  </si>
-  <si>
-    <t>Олджный</t>
-  </si>
-  <si>
-    <t>Гшщзный</t>
+    <t>Андреев Вячеслав Сергеевич</t>
+  </si>
+  <si>
+    <t>Анисимов Александр Алексеевич</t>
+  </si>
+  <si>
+    <t>Батонова Оксана Юрьевна</t>
+  </si>
+  <si>
+    <t>Батракова Елена Сергеевна</t>
+  </si>
+  <si>
+    <t>Богомолов Александр Валентинович</t>
+  </si>
+  <si>
+    <t>Бочарников Евгений Константинович</t>
+  </si>
+  <si>
+    <t>Голенков Алексей Викторович</t>
+  </si>
+  <si>
+    <t>Дудин Евгений -</t>
+  </si>
+  <si>
+    <t>Елкин Максим Алексеевич</t>
+  </si>
+  <si>
+    <t>Калиманов Иван Михайлович</t>
+  </si>
+  <si>
+    <t>Костомаров Никита Дмитриевич</t>
+  </si>
+  <si>
+    <t>Кочуров Кузьма Кириллович</t>
+  </si>
+  <si>
+    <t>Кретова Анна Андреевна</t>
+  </si>
+  <si>
+    <t>Лукин Даниил Олегович</t>
+  </si>
+  <si>
+    <t>Москвин Даниил Сергеевич</t>
+  </si>
+  <si>
+    <t>Мошкин Леонид Игоревич</t>
+  </si>
+  <si>
+    <t>Нагайцева Кристина Олеговна</t>
+  </si>
+  <si>
+    <t>Нуржанов Руслан Кайратович</t>
+  </si>
+  <si>
+    <t>Осоргин Иван Геннадьевич</t>
+  </si>
+  <si>
+    <t>Падалица Кирилл Андреевич</t>
+  </si>
+  <si>
+    <t>Плетминцев Кирилл Витальевич</t>
+  </si>
+  <si>
+    <t>Чашкин Леонид Борисович</t>
+  </si>
+  <si>
+    <t>Чураков Павел Сергеевич</t>
+  </si>
+  <si>
+    <t>Яковлев Михаил Валерьевич</t>
+  </si>
+  <si>
+    <t>Артюков Дмитрий Андреевич</t>
+  </si>
+  <si>
+    <t>Бороздна Максим Дмитриевич</t>
+  </si>
+  <si>
+    <t>Боярский Андрей Олегович</t>
+  </si>
+  <si>
+    <t>Володова Елизавета Сергеевна</t>
+  </si>
+  <si>
+    <t>Геворков Иван Сергеевич</t>
+  </si>
+  <si>
+    <t>Демин Денис Александрович</t>
+  </si>
+  <si>
+    <t>Елисеенко Андрей Михайлович</t>
+  </si>
+  <si>
+    <t>Жусип Нурмухаммед -</t>
+  </si>
+  <si>
+    <t>Иманов Рауф Гасанович</t>
+  </si>
+  <si>
+    <t>Кобелев Даниил Сергеевич</t>
+  </si>
+  <si>
+    <t>Колегов Всеволод Станиславович</t>
+  </si>
+  <si>
+    <t>Костык Дмитрий Олегович</t>
+  </si>
+  <si>
+    <t>Кузнецов Никита Денисович</t>
+  </si>
+  <si>
+    <t>Михайлов Илья Анатольевич</t>
+  </si>
+  <si>
+    <t>Моисеев Михаил Васильевич</t>
+  </si>
+  <si>
+    <t>Мотявин Матвей Валерьевич</t>
+  </si>
+  <si>
+    <t>Осипов Александр Сергеевич</t>
+  </si>
+  <si>
+    <t>Покидова Алина Юрьевна</t>
+  </si>
+  <si>
+    <t>Прохоров Савелий Александрович</t>
+  </si>
+  <si>
+    <t>Сазыкин Дмитрий Николаевич</t>
+  </si>
+  <si>
+    <t>Соколовская Карина Евгеньевна</t>
+  </si>
+  <si>
+    <t>Сигусов Виталий Алексеевич</t>
+  </si>
+  <si>
+    <t>Царегородцева Елизавета Игоревна</t>
+  </si>
+  <si>
+    <t>Челнокова Полина Дмитриевна</t>
+  </si>
+  <si>
+    <t>Щичилин Александр Сергеевич</t>
+  </si>
+  <si>
+    <t>Юлдашов Алишер Сойибжонович</t>
+  </si>
+  <si>
+    <t>8-919-543-32-43</t>
+  </si>
+  <si>
+    <t>8-919-543-32-44</t>
+  </si>
+  <si>
+    <t>8-919-543-32-45</t>
+  </si>
+  <si>
+    <t>8-919-543-32-46</t>
+  </si>
+  <si>
+    <t>8-919-543-32-47</t>
+  </si>
+  <si>
+    <t>8-919-543-32-48</t>
+  </si>
+  <si>
+    <t>8-919-543-32-49</t>
+  </si>
+  <si>
+    <t>8-919-543-32-50</t>
+  </si>
+  <si>
+    <t>8-919-543-32-51</t>
+  </si>
+  <si>
+    <t>8-919-543-32-52</t>
+  </si>
+  <si>
+    <t>8-919-543-32-53</t>
+  </si>
+  <si>
+    <t>8-919-543-32-54</t>
+  </si>
+  <si>
+    <t>8-919-543-32-55</t>
+  </si>
+  <si>
+    <t>8-919-543-32-56</t>
+  </si>
+  <si>
+    <t>8-919-543-32-57</t>
+  </si>
+  <si>
+    <t>8-919-543-32-58</t>
+  </si>
+  <si>
+    <t>8-919-543-32-59</t>
+  </si>
+  <si>
+    <t>8-919-543-32-60</t>
+  </si>
+  <si>
+    <t>8-919-543-32-61</t>
+  </si>
+  <si>
+    <t>8-919-543-32-62</t>
+  </si>
+  <si>
+    <t>8-919-543-32-63</t>
+  </si>
+  <si>
+    <t>8-919-543-32-64</t>
+  </si>
+  <si>
+    <t>8-919-543-32-65</t>
+  </si>
+  <si>
+    <t>8-919-543-32-66</t>
+  </si>
+  <si>
+    <t>8-919-543-32-67</t>
+  </si>
+  <si>
+    <t>8-919-543-32-68</t>
+  </si>
+  <si>
+    <t>8-919-543-32-69</t>
+  </si>
+  <si>
+    <t>8-919-543-32-70</t>
+  </si>
+  <si>
+    <t>8-919-543-32-71</t>
+  </si>
+  <si>
+    <t>8-919-543-32-72</t>
+  </si>
+  <si>
+    <t>8-919-543-32-73</t>
+  </si>
+  <si>
+    <t>8-919-543-32-74</t>
+  </si>
+  <si>
+    <t>8-919-543-32-75</t>
+  </si>
+  <si>
+    <t>8-919-543-32-76</t>
+  </si>
+  <si>
+    <t>8-919-543-32-77</t>
+  </si>
+  <si>
+    <t>8-919-543-32-78</t>
+  </si>
+  <si>
+    <t>8-919-543-32-79</t>
+  </si>
+  <si>
+    <t>8-919-543-32-80</t>
+  </si>
+  <si>
+    <t>8-919-543-32-81</t>
+  </si>
+  <si>
+    <t>8-919-543-32-82</t>
+  </si>
+  <si>
+    <t>8-919-543-32-83</t>
+  </si>
+  <si>
+    <t>8-919-543-32-84</t>
+  </si>
+  <si>
+    <t>8-919-543-32-85</t>
+  </si>
+  <si>
+    <t>8-919-543-32-86</t>
+  </si>
+  <si>
+    <t>8-919-543-32-87</t>
+  </si>
+  <si>
+    <t>8-919-543-32-88</t>
+  </si>
+  <si>
+    <t>8-919-543-32-89</t>
+  </si>
+  <si>
+    <t>8-919-543-32-90</t>
+  </si>
+  <si>
+    <t>8-919-543-32-91</t>
+  </si>
+  <si>
+    <t>8-919-543-32-92</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Среднее общее</t>
+  </si>
+  <si>
+    <t>Неоконченное высшее</t>
+  </si>
+  <si>
+    <t>Среднее профессиональное</t>
+  </si>
+  <si>
+    <t>Студент</t>
+  </si>
+  <si>
+    <t>Директор отдела</t>
+  </si>
+  <si>
+    <t>Зам дирекктора отдела</t>
+  </si>
+  <si>
+    <t>Тим лидер</t>
+  </si>
+  <si>
+    <t>Секретарь</t>
+  </si>
+  <si>
+    <t>Главный бхугалтер</t>
+  </si>
+  <si>
+    <t>Бухгалтер</t>
+  </si>
+  <si>
+    <t>Зарплата в месяц</t>
+  </si>
+  <si>
+    <t>Логистика</t>
+  </si>
+  <si>
+    <t>Бухгалтерия</t>
+  </si>
+  <si>
+    <t>Отдел кадров</t>
+  </si>
+  <si>
+    <t>Отдел продаж</t>
+  </si>
+  <si>
+    <t>8-800</t>
+  </si>
+  <si>
+    <t>Кредитование</t>
+  </si>
+  <si>
+    <t>8-800-555-35-55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,13 +465,57 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -193,8 +530,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -509,57 +862,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802CA84B-12BF-4C23-A805-60116DA63581}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
         <v>1</v>
       </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
         <v>15</v>
       </c>
-      <c r="C2">
+      <c r="D2">
+        <v>38458.611116802786</v>
+      </c>
+      <c r="E2" s="8">
+        <v>45</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="N2">
         <v>1000</v>
       </c>
-      <c r="E2">
+      <c r="O2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <f>A2+1</f>
         <v>2</v>
       </c>
@@ -567,53 +950,101 @@
         <v>16</v>
       </c>
       <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>36856.581674364861</v>
+      </c>
+      <c r="E3" s="8">
+        <v>40</v>
+      </c>
+      <c r="K3">
+        <f>K2+1</f>
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3">
         <v>11</v>
       </c>
-      <c r="D3">
+      <c r="N3">
         <v>5000</v>
       </c>
-      <c r="E3">
+      <c r="O3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f t="shared" ref="A4:A6" si="0">A3+1</f>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A51" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>36974.247551406734</v>
+      </c>
+      <c r="E4" s="8">
+        <v>44</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K6" si="1">K3+1</f>
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
         <v>17</v>
       </c>
-      <c r="C4">
+      <c r="M4">
         <v>12</v>
       </c>
-      <c r="D4">
+      <c r="N4">
         <v>6000</v>
       </c>
-      <c r="E4">
+      <c r="O4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>23366.778906201944</v>
+      </c>
+      <c r="E5" s="8">
+        <v>36</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
         <v>15</v>
       </c>
-      <c r="C5">
+      <c r="M5">
         <v>13</v>
       </c>
-      <c r="D5">
+      <c r="N5">
         <v>4000</v>
       </c>
-      <c r="E5">
+      <c r="O5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -621,103 +1052,1472 @@
         <v>16</v>
       </c>
       <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>29717.02552807983</v>
+      </c>
+      <c r="E6" s="8">
+        <v>41</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6">
         <v>14</v>
       </c>
-      <c r="D6">
+      <c r="N6">
         <v>5000</v>
       </c>
-      <c r="E6">
+      <c r="O6">
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>39925.184965832159</v>
+      </c>
+      <c r="E7" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>39452.229531016201</v>
+      </c>
+      <c r="E8" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>19885.178618133068</v>
+      </c>
+      <c r="E9" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>50305.539035471156</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>61799.278329126537</v>
+      </c>
+      <c r="E11" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>32527.268659614492</v>
+      </c>
+      <c r="E12" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>41359.221641905606</v>
+      </c>
+      <c r="E13" s="8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="D14">
+        <v>35586.595105123706</v>
+      </c>
+      <c r="E14" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <v>18522.573655936867</v>
+      </c>
+      <c r="E15" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>47098.533387761563</v>
+      </c>
+      <c r="E16" s="8">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>19</v>
+      </c>
+      <c r="D17">
+        <v>6027.0987078547478</v>
+      </c>
+      <c r="E17" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>19</v>
+      </c>
+      <c r="D18">
+        <v>36807.155184797011</v>
+      </c>
+      <c r="E18" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>44668.818291975185</v>
+      </c>
+      <c r="E19" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>53608.341760118492</v>
+      </c>
+      <c r="E20" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>39823.276084498502</v>
+      </c>
+      <c r="E21" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>39634.137566317804</v>
+      </c>
+      <c r="E22" s="8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>55463.956515304744</v>
+      </c>
+      <c r="E23" s="8">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>20</v>
+      </c>
+      <c r="D24">
+        <v>40245.577211899217</v>
+      </c>
+      <c r="E24" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="D25">
+        <v>21473.756633931771</v>
+      </c>
+      <c r="E25" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>47130.279300326947</v>
+      </c>
+      <c r="E26" s="8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>32789.612406340893</v>
+      </c>
+      <c r="E27" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>22</v>
+      </c>
+      <c r="D28">
+        <v>35667.030816548504</v>
+      </c>
+      <c r="E28" s="8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29">
+        <v>22</v>
+      </c>
+      <c r="D29">
+        <v>12446.457832120359</v>
+      </c>
+      <c r="E29" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <v>53018.907338846475</v>
+      </c>
+      <c r="E30" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>49587.183740222827</v>
+      </c>
+      <c r="E31" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>50155.035852221772</v>
+      </c>
+      <c r="E32" s="8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>38703.588062198833</v>
+      </c>
+      <c r="E33" s="8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>35169.355315738358</v>
+      </c>
+      <c r="E34" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35">
+        <v>24</v>
+      </c>
+      <c r="D35">
+        <v>44989.34696224751</v>
+      </c>
+      <c r="E35" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>12088.262438774109</v>
+      </c>
+      <c r="E36" s="8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>62794.192773289979</v>
+      </c>
+      <c r="E37" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38">
+        <v>25</v>
+      </c>
+      <c r="D38">
+        <v>46015.447979734745</v>
+      </c>
+      <c r="E38" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39">
+        <v>26</v>
+      </c>
+      <c r="D39">
+        <v>45342.863005353138</v>
+      </c>
+      <c r="E39" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40">
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>53789.758668281138</v>
+      </c>
+      <c r="E40" s="8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <v>27</v>
+      </c>
+      <c r="D41">
+        <v>23279.9585419707</v>
+      </c>
+      <c r="E41" s="8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42">
+        <v>27</v>
+      </c>
+      <c r="D42">
+        <v>30584.874467458576</v>
+      </c>
+      <c r="E42" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43">
+        <v>27</v>
+      </c>
+      <c r="D43">
+        <v>17719.853632152081</v>
+      </c>
+      <c r="E43" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44">
+        <v>27</v>
+      </c>
+      <c r="D44">
+        <v>30398.900990840048</v>
+      </c>
+      <c r="E44" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45">
+        <v>27</v>
+      </c>
+      <c r="D45">
+        <v>19981.766955461353</v>
+      </c>
+      <c r="E45" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46">
+        <v>27</v>
+      </c>
+      <c r="D46">
+        <v>39217.784534266684</v>
+      </c>
+      <c r="E46" s="8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47">
+        <v>27</v>
+      </c>
+      <c r="D47">
+        <v>48095.889825199265</v>
+      </c>
+      <c r="E47" s="8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>28</v>
+      </c>
+      <c r="D48">
+        <v>49526.693247607909</v>
+      </c>
+      <c r="E48" s="8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>29</v>
+      </c>
+      <c r="D49">
+        <v>34699.687704269309</v>
+      </c>
+      <c r="E49" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>30</v>
+      </c>
+      <c r="D50">
+        <v>50561.416274867952</v>
+      </c>
+      <c r="E50" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>30</v>
+      </c>
+      <c r="D51">
+        <v>41856.651579146273</v>
+      </c>
+      <c r="E51" s="8">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:E51">
+    <sortCondition ref="C2:C51"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E65D3C7-96B9-4249-84BC-8FFE97811FCF}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B2" s="9">
+        <v>6</v>
+      </c>
+      <c r="C2" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f t="shared" ref="A4:A6" si="0">A3+1</f>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f t="shared" ref="A4:A51" si="0">A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f t="shared" si="0"/>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="9">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="C10" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3</v>
+      </c>
+      <c r="C12" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="9">
+        <v>6</v>
+      </c>
+      <c r="C13" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C14" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f t="shared" si="0"/>
+      <c r="C15" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="9">
+        <v>1</v>
+      </c>
+      <c r="C19" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="9">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="9">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="9">
+        <v>4</v>
+      </c>
+      <c r="C22" s="10">
         <v>5</v>
       </c>
-      <c r="B6">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="9">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C23" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="9">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="9">
+        <v>2</v>
+      </c>
+      <c r="C25" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="9">
+        <v>4</v>
+      </c>
+      <c r="C26" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="9">
+        <v>4</v>
+      </c>
+      <c r="C28" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="9">
+        <v>2</v>
+      </c>
+      <c r="C29" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="9">
+        <v>5</v>
+      </c>
+      <c r="C30" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="9">
+        <v>5</v>
+      </c>
+      <c r="C31" s="10">
         <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="9">
+        <v>5</v>
+      </c>
+      <c r="C32" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="9">
+        <v>6</v>
+      </c>
+      <c r="C33" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="9">
+        <v>4</v>
+      </c>
+      <c r="C34" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="9">
+        <v>2</v>
+      </c>
+      <c r="C35" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="9">
+        <v>2</v>
+      </c>
+      <c r="C36" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="9">
+        <v>5</v>
+      </c>
+      <c r="C37" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="9">
+        <v>3</v>
+      </c>
+      <c r="C38" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="9">
+        <v>5</v>
+      </c>
+      <c r="C39" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="8">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="9">
+        <v>4</v>
+      </c>
+      <c r="C40" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="9">
+        <v>3</v>
+      </c>
+      <c r="C41" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="8">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="9">
+        <v>2</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="9">
+        <v>4</v>
+      </c>
+      <c r="C43" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="8">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="9">
+        <v>2</v>
+      </c>
+      <c r="C44" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="9">
+        <v>3</v>
+      </c>
+      <c r="C45" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="8">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="9">
+        <v>1</v>
+      </c>
+      <c r="C46" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="9">
+        <v>2</v>
+      </c>
+      <c r="C47" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="8">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="9">
+        <v>1</v>
+      </c>
+      <c r="C48" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="9">
+        <v>3</v>
+      </c>
+      <c r="C49" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="9">
+        <v>6</v>
+      </c>
+      <c r="C50" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="9">
+        <v>6</v>
+      </c>
+      <c r="C51" s="10">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -726,254 +2526,1166 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9A834C-B529-4046-AC5D-6954E484C53A}">
-  <dimension ref="A1:F6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C78A7D8-24EA-4D09-A2F0-CA9351E1F58B}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2">
-        <v>111</v>
-      </c>
-      <c r="D2">
-        <v>1111111</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="C3">
-        <v>222</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>2222222</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f t="shared" ref="A4:A6" si="0">A3+1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <f t="shared" ref="A4:A7" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="C4">
-        <v>333</v>
+        <v>50</v>
       </c>
       <c r="D4">
-        <v>3333333</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
       <c r="C5">
-        <v>444</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>4444444</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>128</v>
       </c>
       <c r="C6">
-        <v>555</v>
+        <v>40</v>
       </c>
       <c r="D6">
-        <v>5555555</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C78A7D8-24EA-4D09-A2F0-CA9351E1F58B}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9A834C-B529-4046-AC5D-6954E484C53A}">
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E20" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="C2">
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>123</v>
+      </c>
+      <c r="F37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f t="shared" ref="A4:A6" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4">
+      <c r="B41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E43" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" t="s">
+        <v>120</v>
+      </c>
+      <c r="F44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>112</v>
+      </c>
+      <c r="E45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>113</v>
+      </c>
+      <c r="E46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" t="s">
+        <v>122</v>
+      </c>
+      <c r="F47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5">
-        <v>30</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6">
-        <v>40</v>
-      </c>
-      <c r="D6">
-        <v>6</v>
+      <c r="B51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -986,18 +3698,18 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1007,66 +3719,1485 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2">
-        <v>1010101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+        <v>131</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="C3">
         <v>2020202</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
         <f t="shared" ref="A4:A6" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="C4">
         <v>3030303</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="C5">
         <v>4040404</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6">
-        <v>5050505</v>
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E370CA2-C0D5-45FF-9544-4D4A48F83E58}">
+  <dimension ref="B2:Q69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" customWidth="1"/>
+    <col min="12" max="12" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3">
+        <v>40</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <f>H3+1</f>
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <f t="shared" ref="B5:B7" si="0">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:H8" si="1">H4+1</f>
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H8" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>129</v>
+      </c>
+      <c r="J8">
+        <v>30</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L16" s="3"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="L18" s="3"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20">
+        <v>50305.539035471156</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H21" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21">
+        <v>34699.687704269309</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22">
+        <v>50561.416274867952</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23">
+        <v>53018.907338846475</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H24" t="s">
+        <v>119</v>
+      </c>
+      <c r="I24">
+        <v>44989.34696224751</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s">
+        <v>122</v>
+      </c>
+      <c r="H25" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25">
+        <v>30584.874467458576</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26">
+        <v>6027.0987078547478</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I27">
+        <v>39217.784534266684</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28">
+        <v>53608.341760118492</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" t="s">
+        <v>119</v>
+      </c>
+      <c r="I29">
+        <v>39452.229531016201</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" t="s">
+        <v>119</v>
+      </c>
+      <c r="I30">
+        <v>12088.262438774109</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31">
+        <v>32527.268659614492</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" t="s">
+        <v>119</v>
+      </c>
+      <c r="I32">
+        <v>45342.863005353138</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" t="s">
+        <v>119</v>
+      </c>
+      <c r="I33">
+        <v>39634.137566317804</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" t="s">
+        <v>121</v>
+      </c>
+      <c r="H34" t="s">
+        <v>119</v>
+      </c>
+      <c r="I34">
+        <v>46015.447979734745</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35">
+        <v>32789.612406340893</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G36" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36">
+        <v>12446.457832120359</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s">
+        <v>120</v>
+      </c>
+      <c r="H37" t="s">
+        <v>119</v>
+      </c>
+      <c r="I37">
+        <v>39823.276084498502</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38">
+        <v>19</v>
+      </c>
+      <c r="F38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" t="s">
+        <v>122</v>
+      </c>
+      <c r="H38" t="s">
+        <v>119</v>
+      </c>
+      <c r="I38">
+        <v>35169.355315738358</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" t="s">
+        <v>122</v>
+      </c>
+      <c r="H39" t="s">
+        <v>119</v>
+      </c>
+      <c r="I39">
+        <v>35586.595105123706</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H40" t="s">
+        <v>119</v>
+      </c>
+      <c r="I40">
+        <v>17719.853632152081</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>22</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>22</v>
+      </c>
+      <c r="F41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" t="s">
+        <v>119</v>
+      </c>
+      <c r="I41">
+        <v>18522.573655936867</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" t="s">
+        <v>119</v>
+      </c>
+      <c r="I42">
+        <v>39925.184965832159</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <v>24</v>
+      </c>
+      <c r="F43" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" t="s">
+        <v>121</v>
+      </c>
+      <c r="H43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I43">
+        <v>47098.533387761563</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" t="s">
+        <v>119</v>
+      </c>
+      <c r="I44">
+        <v>47130.279300326947</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45">
+        <v>26</v>
+      </c>
+      <c r="F45" t="s">
+        <v>94</v>
+      </c>
+      <c r="G45" t="s">
+        <v>120</v>
+      </c>
+      <c r="H45" t="s">
+        <v>119</v>
+      </c>
+      <c r="I45">
+        <v>40245.577211899217</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46">
+        <v>27</v>
+      </c>
+      <c r="F46" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I46">
+        <v>19885.178618133068</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47">
+        <v>28</v>
+      </c>
+      <c r="F47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" t="s">
+        <v>123</v>
+      </c>
+      <c r="H47" t="s">
+        <v>119</v>
+      </c>
+      <c r="I47">
+        <v>19981.766955461353</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>29</v>
+      </c>
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" t="s">
+        <v>120</v>
+      </c>
+      <c r="H48" t="s">
+        <v>119</v>
+      </c>
+      <c r="I48">
+        <v>41359.221641905606</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>30</v>
+      </c>
+      <c r="D49" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
+      </c>
+      <c r="F49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" t="s">
+        <v>119</v>
+      </c>
+      <c r="I49">
+        <v>53789.758668281138</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>31</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50">
+        <v>31</v>
+      </c>
+      <c r="F50" t="s">
+        <v>99</v>
+      </c>
+      <c r="G50" t="s">
+        <v>122</v>
+      </c>
+      <c r="H50" t="s">
+        <v>119</v>
+      </c>
+      <c r="I50">
+        <v>35667.030816548504</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>32</v>
+      </c>
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51">
+        <v>32</v>
+      </c>
+      <c r="F51" t="s">
+        <v>100</v>
+      </c>
+      <c r="G51" t="s">
+        <v>123</v>
+      </c>
+      <c r="H51" t="s">
+        <v>119</v>
+      </c>
+      <c r="I51">
+        <v>21473.756633931771</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>33</v>
+      </c>
+      <c r="D52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52">
+        <v>33</v>
+      </c>
+      <c r="F52" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" t="s">
+        <v>123</v>
+      </c>
+      <c r="H52" t="s">
+        <v>119</v>
+      </c>
+      <c r="I52">
+        <v>23279.9585419707</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>34</v>
+      </c>
+      <c r="D53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53">
+        <v>34</v>
+      </c>
+      <c r="F53" t="s">
+        <v>102</v>
+      </c>
+      <c r="G53" t="s">
+        <v>122</v>
+      </c>
+      <c r="H53" t="s">
+        <v>119</v>
+      </c>
+      <c r="I53">
+        <v>36807.155184797011</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>35</v>
+      </c>
+      <c r="D54" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54">
+        <v>35</v>
+      </c>
+      <c r="F54" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
+        <v>119</v>
+      </c>
+      <c r="I54">
+        <v>55463.956515304744</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>36</v>
+      </c>
+      <c r="D55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55">
+        <v>36</v>
+      </c>
+      <c r="F55" t="s">
+        <v>104</v>
+      </c>
+      <c r="G55" t="s">
+        <v>123</v>
+      </c>
+      <c r="H55" t="s">
+        <v>119</v>
+      </c>
+      <c r="I55">
+        <v>23366.778906201944</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>37</v>
+      </c>
+      <c r="D56" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <v>37</v>
+      </c>
+      <c r="F56" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" t="s">
+        <v>121</v>
+      </c>
+      <c r="H56" t="s">
+        <v>119</v>
+      </c>
+      <c r="I56">
+        <v>48095.889825199265</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57">
+        <v>38</v>
+      </c>
+      <c r="F57" t="s">
+        <v>106</v>
+      </c>
+      <c r="G57" t="s">
+        <v>121</v>
+      </c>
+      <c r="H57" t="s">
+        <v>119</v>
+      </c>
+      <c r="I57">
+        <v>49526.693247607909</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>39</v>
+      </c>
+      <c r="D58" t="s">
+        <v>57</v>
+      </c>
+      <c r="E58">
+        <v>39</v>
+      </c>
+      <c r="F58" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" t="s">
+        <v>119</v>
+      </c>
+      <c r="I58">
+        <v>61799.278329126537</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>40</v>
+      </c>
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59">
+        <v>40</v>
+      </c>
+      <c r="F59" t="s">
+        <v>108</v>
+      </c>
+      <c r="G59" t="s">
+        <v>122</v>
+      </c>
+      <c r="H59" t="s">
+        <v>119</v>
+      </c>
+      <c r="I59">
+        <v>36856.581674364861</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>41</v>
+      </c>
+      <c r="D60" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60">
+        <v>41</v>
+      </c>
+      <c r="F60" t="s">
+        <v>109</v>
+      </c>
+      <c r="G60" t="s">
+        <v>123</v>
+      </c>
+      <c r="H60" t="s">
+        <v>119</v>
+      </c>
+      <c r="I60">
+        <v>29717.02552807983</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>42</v>
+      </c>
+      <c r="D61" t="s">
+        <v>60</v>
+      </c>
+      <c r="E61">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s">
+        <v>110</v>
+      </c>
+      <c r="G61" t="s">
+        <v>121</v>
+      </c>
+      <c r="H61" t="s">
+        <v>119</v>
+      </c>
+      <c r="I61">
+        <v>49587.183740222827</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>43</v>
+      </c>
+      <c r="D62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>111</v>
+      </c>
+      <c r="G62" t="s">
+        <v>120</v>
+      </c>
+      <c r="H62" t="s">
+        <v>119</v>
+      </c>
+      <c r="I62">
+        <v>41856.651579146273</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>44</v>
+      </c>
+      <c r="D63" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>112</v>
+      </c>
+      <c r="G63" t="s">
+        <v>122</v>
+      </c>
+      <c r="H63" t="s">
+        <v>119</v>
+      </c>
+      <c r="I63">
+        <v>36974.247551406734</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>45</v>
+      </c>
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64">
+        <v>45</v>
+      </c>
+      <c r="F64" t="s">
+        <v>113</v>
+      </c>
+      <c r="G64" t="s">
+        <v>122</v>
+      </c>
+      <c r="H64" t="s">
+        <v>119</v>
+      </c>
+      <c r="I64">
+        <v>38458.611116802786</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>46</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65">
+        <v>46</v>
+      </c>
+      <c r="F65" t="s">
+        <v>114</v>
+      </c>
+      <c r="G65" t="s">
+        <v>122</v>
+      </c>
+      <c r="H65" t="s">
+        <v>119</v>
+      </c>
+      <c r="I65">
+        <v>38703.588062198833</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>47</v>
+      </c>
+      <c r="D66" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66">
+        <v>47</v>
+      </c>
+      <c r="F66" t="s">
+        <v>115</v>
+      </c>
+      <c r="G66" t="s">
+        <v>120</v>
+      </c>
+      <c r="H66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I66">
+        <v>44668.818291975185</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>48</v>
+      </c>
+      <c r="D67" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67">
+        <v>48</v>
+      </c>
+      <c r="F67" t="s">
+        <v>116</v>
+      </c>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
+      <c r="H67" t="s">
+        <v>119</v>
+      </c>
+      <c r="I67">
+        <v>62794.192773289979</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>49</v>
+      </c>
+      <c r="D68" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68">
+        <v>49</v>
+      </c>
+      <c r="F68" t="s">
+        <v>117</v>
+      </c>
+      <c r="G68" t="s">
+        <v>121</v>
+      </c>
+      <c r="H68" t="s">
+        <v>119</v>
+      </c>
+      <c r="I68">
+        <v>50155.035852221772</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>50</v>
+      </c>
+      <c r="D69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69">
+        <v>50</v>
+      </c>
+      <c r="F69" t="s">
+        <v>118</v>
+      </c>
+      <c r="G69" t="s">
+        <v>123</v>
+      </c>
+      <c r="H69" t="s">
+        <v>119</v>
+      </c>
+      <c r="I69">
+        <v>30398.900990840048</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C20:I69">
+    <sortCondition ref="C20:C69"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>